--- a/doc/11_モーション監視システム.xlsx
+++ b/doc/11_モーション監視システム.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="984" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="０．全体概要" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,31 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="140">
   <si>
     <t>１．はじめに</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="IPA Pゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>本書は、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="IPA Pゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Raspberry Piのモーションセンサーを活用して実現できるシステム例の構築手順を示すものである。</t>
-    </r>
+    <t>本書は、Raspberry Piのモーションセンサーを活用して実現できるシステム例の構築手順を示すものである。</t>
   </si>
   <si>
     <t>２．目的</t>
@@ -89,6 +70,33 @@
     <t>３．前提事項</t>
   </si>
   <si>
+    <t>・Raspberry Piの初期設定がひと通り完了していること。</t>
+  </si>
+  <si>
+    <t>４．準備物</t>
+  </si>
+  <si>
+    <t>・Raspberry Pi本体</t>
+  </si>
+  <si>
+    <t>・モーションセンサー（HC-SR501）</t>
+  </si>
+  <si>
+    <t>５．構築の流れ</t>
+  </si>
+  <si>
+    <t>以下の流れで構築する。（詳細は各シート参照）</t>
+  </si>
+  <si>
+    <t>１．モーションセンサーによる監視</t>
+  </si>
+  <si>
+    <t>２．音声の出力</t>
+  </si>
+  <si>
+    <t>１．１．モーションセンサー接続</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -96,90 +104,6 @@
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
         <charset val="1"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="IPA Pゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Raspberry Piの初期設定がひと通り完了していること。</t>
-    </r>
-  </si>
-  <si>
-    <t>４．準備物</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="IPA Pゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="IPA Pゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Raspberry Pi本体</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="IPA Pゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>・モーションセンサー（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="IPA Pゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>HC-SR501）</t>
-    </r>
-  </si>
-  <si>
-    <t>５．構築の流れ</t>
-  </si>
-  <si>
-    <t>以下の流れで構築する。（詳細は各シート参照）</t>
-  </si>
-  <si>
-    <t>１．モーションセンサーによる監視</t>
-  </si>
-  <si>
-    <t>２．音声の出力</t>
-  </si>
-  <si>
-    <t>１．１．モーションセンサー接続</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
       </rPr>
       <t>Raspberry Pi</t>
     </r>
@@ -191,7 +115,52 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>とモーションセンサー（</t>
+      <t>とモーションセンサー（HC-SR501）を接続する。</t>
+    </r>
+  </si>
+  <si>
+    <t>HC-SR501</t>
+  </si>
+  <si>
+    <t>Raspberry Pi</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>02 pin (5V)</t>
+  </si>
+  <si>
+    <t>※3VでもOK</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>29 pin (GPIO5)</t>
+  </si>
+  <si>
+    <t>Ground</t>
+  </si>
+  <si>
+    <t>06 pin (GND)</t>
+  </si>
+  <si>
+    <t>＜イメージ図＞</t>
+  </si>
+  <si>
+    <t>１．２．Pythonファイルの作成</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>以下内容の「</t>
     </r>
     <r>
       <rPr>
@@ -200,77 +169,6 @@
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
         <charset val="1"/>
-      </rPr>
-      <t>HC-SR501）を接続する。</t>
-    </r>
-  </si>
-  <si>
-    <t>HC-SR501</t>
-  </si>
-  <si>
-    <t>Raspberry Pi</t>
-  </si>
-  <si>
-    <t>Power</t>
-  </si>
-  <si>
-    <t>02 pin (5V)</t>
-  </si>
-  <si>
-    <t>Output</t>
-  </si>
-  <si>
-    <t>29 pin (GPIO5)</t>
-  </si>
-  <si>
-    <t>Ground</t>
-  </si>
-  <si>
-    <t>06 pin (GND)</t>
-  </si>
-  <si>
-    <t>＜イメージ図＞</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="IPA Pゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>１．２．</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="IPA Pゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Pythonファイルの作成</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="IPA Pゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>以下内容の「</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
       </rPr>
       <t>sensor.py</t>
     </r>
@@ -282,7 +180,103 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>」ファイルを作成し、</t>
+      <t>」ファイルを作成し、Raspberry Pi上の任意の場所（手順上はデスクトップ）に配置する。</t>
+    </r>
+  </si>
+  <si>
+    <t>※作りたい場所上で「右クリック」→「空のファイル作成」で「sensor.py」を入力しダブルクリックで開いて以下貼り付け。</t>
+  </si>
+  <si>
+    <t>import RPi.GPIO as GPIO</t>
+  </si>
+  <si>
+    <t>センサーの値を取得するためのモジュールのインポート</t>
+  </si>
+  <si>
+    <t>import time</t>
+  </si>
+  <si>
+    <t>時間を制御するためのモジュールのインポート</t>
+  </si>
+  <si>
+    <t>SLEEP_TIME = 1</t>
+  </si>
+  <si>
+    <t>何秒ごとに監視するかを設定</t>
+  </si>
+  <si>
+    <t>SENSOR_GPIO = 5</t>
+  </si>
+  <si>
+    <t>センサーを利用する（１．１のOutput）GPIOを設定</t>
+  </si>
+  <si>
+    <t>GPIO.cleanup()</t>
+  </si>
+  <si>
+    <t>センサーの初期化</t>
+  </si>
+  <si>
+    <t>GPIO.setmode(GPIO.BCM)</t>
+  </si>
+  <si>
+    <t>GPIO.setup(SENSOR_GPIO, GPIO.IN)</t>
+  </si>
+  <si>
+    <t>print( "START!")</t>
+  </si>
+  <si>
+    <t>“START” の表示</t>
+  </si>
+  <si>
+    <t>while True:</t>
+  </si>
+  <si>
+    <t>ループ</t>
+  </si>
+  <si>
+    <t>if GPIO.input(SENSOR_GPIO) == GPIO.HIGH:</t>
+  </si>
+  <si>
+    <t>センサーの値がHIGH（検知された）の場合</t>
+  </si>
+  <si>
+    <t>print("WARNING!!!")</t>
+  </si>
+  <si>
+    <t>“WARNING!!!”を表示</t>
+  </si>
+  <si>
+    <t>else:</t>
+  </si>
+  <si>
+    <t>HIGHでない場合</t>
+  </si>
+  <si>
+    <t>print("...")</t>
+  </si>
+  <si>
+    <t>“...”を表示</t>
+  </si>
+  <si>
+    <t>time.sleep(SLEEP_TIME)</t>
+  </si>
+  <si>
+    <t>1秒ごとにスリープ</t>
+  </si>
+  <si>
+    <t>１．３．Pythonファイルの実行</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>画面上部バーにある「</t>
     </r>
     <r>
       <rPr>
@@ -291,169 +285,6 @@
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
         <charset val="1"/>
-      </rPr>
-      <t>Raspberry Pi上の任意の場所（手順上はデスクトップ）に配置する。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="IPA Pゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>※作りたい場所上で「右クリック」→「空のファイル作成」で「</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="IPA Pゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>sensor.py」を入力しダブルクリックで開いて以下貼り付け。</t>
-    </r>
-  </si>
-  <si>
-    <t>import RPi.GPIO as GPIO</t>
-  </si>
-  <si>
-    <t>センサーの値を取得するためのモジュールのインポート</t>
-  </si>
-  <si>
-    <t>import time</t>
-  </si>
-  <si>
-    <t>時間を制御するためのモジュールのインポート</t>
-  </si>
-  <si>
-    <t>SLEEP_TIME = 1</t>
-  </si>
-  <si>
-    <t>何秒ごとに監視するかを設定</t>
-  </si>
-  <si>
-    <t>SENSOR_GPIO = 5</t>
-  </si>
-  <si>
-    <t>センサーを利用する（１．１のOutput）番号を設定</t>
-  </si>
-  <si>
-    <t>GPIO.cleanup()</t>
-  </si>
-  <si>
-    <t>センサーの初期化</t>
-  </si>
-  <si>
-    <t>GPIO.setmode(GPIO.BCM)</t>
-  </si>
-  <si>
-    <t>GPIO.setup(SENSOR_GPIO, GPIO.IN)</t>
-  </si>
-  <si>
-    <t>print( "START!")</t>
-  </si>
-  <si>
-    <t>“START” の表示</t>
-  </si>
-  <si>
-    <t>while True:</t>
-  </si>
-  <si>
-    <t>ループ</t>
-  </si>
-  <si>
-    <t>if GPIO.input(SENSOR_GPIO) == GPIO.HIGH:</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF3333"/>
-        <rFont val="IPA Pゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>センサーの値が</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF3333"/>
-        <rFont val="IPA Pゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>HIGH（検知された）の場合</t>
-    </r>
-  </si>
-  <si>
-    <t>print("WARNING!!!")</t>
-  </si>
-  <si>
-    <t>“WARNING!!!”を表示</t>
-  </si>
-  <si>
-    <t>else:</t>
-  </si>
-  <si>
-    <t>HIGHでない場合</t>
-  </si>
-  <si>
-    <t>print("...")</t>
-  </si>
-  <si>
-    <t>“...”を表示</t>
-  </si>
-  <si>
-    <t>time.sleep(SLEEP_TIME)</t>
-  </si>
-  <si>
-    <t>1秒ごとにスリープ</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="IPA Pゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>１．３．</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="IPA Pゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Pythonファイルの実行</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="IPA Pゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>画面上部バーにある「</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
       </rPr>
       <t>LXTerminal</t>
     </r>
@@ -465,8 +296,10 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>」を起動し、以下の</t>
+      <t>」を起動し、以下のpythonコマンドを実行する。</t>
     </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -475,10 +308,8 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>pythonコマンドを実行する。</t>
+      <t>$ python /home/pi/</t>
     </r>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -487,7 +318,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>$ python /home/pi/デスクトップ</t>
+      <t>デスクトップ</t>
     </r>
     <r>
       <rPr>
@@ -510,15 +341,60 @@
     <t>モーションセンサーの動作を確認する。</t>
   </si>
   <si>
+    <t>上記コードでは、モーションセンサーは、1秒おきで動きがないかチェックし、</t>
+  </si>
+  <si>
+    <t>動きがない状態は「…」、動きがあれば「WARNING!!」とターミナルに表示される。</t>
+  </si>
+  <si>
+    <t>終了させたい場合、Ctrl+Cを押下する。</t>
+  </si>
+  <si>
+    <t>＜ターミナル表示イメージ＞</t>
+  </si>
+  <si>
+    <t>START!</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>←動きなし</t>
+  </si>
+  <si>
+    <t>・</t>
+  </si>
+  <si>
+    <t>WARNING!!</t>
+  </si>
+  <si>
+    <t>←動きを検知</t>
+  </si>
+  <si>
+    <t>１．５．検知精度の調整（必要に応じて）</t>
+  </si>
+  <si>
+    <t>①モーションセンサーは広い範囲で動きを拾うため、紙などで周りを囲い検知範囲を狭めると確認しやすい。</t>
+  </si>
+  <si>
+    <t>②つまみを回すことで「検知出力保持期間」や「検出距離」を調整できる。</t>
+  </si>
+  <si>
+    <t>基本的にはどちらも図のように限界まで反時計回りにしておけば問題ないはず。</t>
+  </si>
+  <si>
+    <t>※上記持続時間制約により、一度検知されると、少なくとも3秒は検知状態になる。</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="IPA Pゴシック"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
-        <charset val="1"/>
+        <charset val="128"/>
       </rPr>
-      <t>上記コードでは、モーションセンサーは、</t>
+      <t>　そのため、</t>
     </r>
     <r>
       <rPr>
@@ -528,118 +404,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>1秒おきで動きがないかチェックし、</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="IPA Pゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>動きがない状態は「…」、動きがあれば「</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="IPA Pゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>WARNING!!」とターミナルに表示される。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="IPA Pゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>終了させたい場合、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="IPA Pゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Ctrl+Cを押下する。</t>
-    </r>
-  </si>
-  <si>
-    <t>＜ターミナル表示イメージ＞</t>
-  </si>
-  <si>
-    <t>START!</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>←動きなし</t>
-  </si>
-  <si>
-    <t>・</t>
-  </si>
-  <si>
-    <t>WARNING!!</t>
-  </si>
-  <si>
-    <t>←動きを検知</t>
-  </si>
-  <si>
-    <t>１．５．検知精度の調整（必要に応じて）</t>
-  </si>
-  <si>
-    <t>①モーションセンサーは広い範囲で動きを拾うため、紙などで周りを囲い検知範囲を狭めると確認しやすい。</t>
-  </si>
-  <si>
-    <t>②つまみを回すことで「検知出力保持期間」や「検出距離」を調整できる。</t>
-  </si>
-  <si>
-    <t>基本的にはどちらも図のように限界まで反時計回りにしておけば問題ないはず。</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="IPA Pゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>※上記持続時間制約により、一度検知されると、少なくとも</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="IPA Pゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>3秒は検知状態になる。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="IPA Pゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>　そのため、</t>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -649,7 +414,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>1</t>
+      <t>度の検知で「</t>
     </r>
     <r>
       <rPr>
@@ -658,16 +423,6 @@
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
         <charset val="1"/>
-      </rPr>
-      <t>度の検知で「</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
       </rPr>
       <t>WARNING!!</t>
     </r>
@@ -679,43 +434,14 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>」が</t>
+      <t>」が3回出力されている。</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="IPA Pゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>3回出力されている。</t>
-    </r>
   </si>
   <si>
     <t>２．１．音声ファイル準備</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="IPA Pゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>利用する音声ファイルを</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="IPA Pゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Raspberry Piに格納する。</t>
-    </r>
+    <t>利用する音声ファイルをRaspberry Piに格納する。</t>
   </si>
   <si>
     <t>パス：</t>
@@ -858,15 +584,18 @@
     <t>２．４．プログラム微修正</t>
   </si>
   <si>
+    <t>２．３では、検知の都度3回警告音が再生されてしまう。</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="IPA Pゴシック"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
-        <charset val="1"/>
+        <charset val="128"/>
       </rPr>
-      <t>２．３では、検知の都度</t>
+      <t>同じ音声が重複して再生されてしまうのを防ぐため、</t>
     </r>
     <r>
       <rPr>
@@ -875,28 +604,6 @@
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
         <charset val="1"/>
-      </rPr>
-      <t>3回警告音が再生されてしまう。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="IPA Pゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>同じ音声が重複して再生されてしまうのを防ぐため、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
       </rPr>
       <t>1</t>
     </r>
@@ -908,18 +615,8 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>度検知してから</t>
+      <t>度検知してから3秒間は再度検知しないように sensor.py を以下の通り修正する。</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="IPA Pゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>3秒間は再度検知しないように sensor.py を以下の通り修正する。</t>
-    </r>
   </si>
   <si>
     <t>#define</t>
@@ -970,26 +667,7 @@
     <t>        if warningFlg == True and (time.time() - beforeWarningtime &gt; SENSOR_WAIT_TIME):</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF3333"/>
-        <rFont val="IPA Pゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>動きが検知されず、前回検知より</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF3333"/>
-        <rFont val="IPA Pゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>3秒以上経っている場合のみ音声を止める</t>
-    </r>
+    <t>動きが検知されず、前回検知より3秒以上経っている場合のみ音声を止める</t>
   </si>
   <si>
     <t>            sirenSound.stop()</t>
@@ -1004,26 +682,7 @@
     <t>２．５．期待通りに音声が再生されることの確認</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="IPA Pゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>以下コマンドでファイルを実行し、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="IPA Pゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>1度の検知で音声が重複しないことを確認する。</t>
-    </r>
+    <t>以下コマンドでファイルを実行し、1度の検知で音声が重複しないことを確認する。</t>
   </si>
 </sst>
 </file>
@@ -1033,7 +692,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1062,16 +721,16 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
-      <charset val="128"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Yu Gothic"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
-      <charset val="1"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1079,13 +738,6 @@
       <name val="IPA Pゴシック"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF3333"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1109,12 +761,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="IPA Pゴシック"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1236,12 +882,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1249,7 +891,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1261,7 +907,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1277,7 +923,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1293,11 +939,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1309,7 +951,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1321,7 +963,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1329,19 +975,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1422,15 +1060,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>53640</xdr:colOff>
+      <xdr:colOff>80640</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>93600</xdr:rowOff>
+      <xdr:rowOff>84600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>87120</xdr:colOff>
+      <xdr:colOff>113760</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>82080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1443,8 +1081,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="548640" y="1998360"/>
-          <a:ext cx="4243680" cy="3569760"/>
+          <a:off x="575640" y="1989360"/>
+          <a:ext cx="4243320" cy="3569400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1461,15 +1099,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>190800</xdr:colOff>
+      <xdr:colOff>217800</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>16920</xdr:rowOff>
+      <xdr:rowOff>7920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>103320</xdr:colOff>
+      <xdr:colOff>129960</xdr:colOff>
       <xdr:row>91</xdr:row>
-      <xdr:rowOff>135720</xdr:rowOff>
+      <xdr:rowOff>126360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1482,8 +1120,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="16016760"/>
-          <a:ext cx="3627360" cy="4643280"/>
+          <a:off x="712800" y="16007760"/>
+          <a:ext cx="3627000" cy="4642920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1498,15 +1136,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>33840</xdr:colOff>
+      <xdr:colOff>60840</xdr:colOff>
       <xdr:row>95</xdr:row>
-      <xdr:rowOff>117360</xdr:rowOff>
+      <xdr:rowOff>108360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>141480</xdr:colOff>
+      <xdr:colOff>168120</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>238320</xdr:rowOff>
+      <xdr:rowOff>228960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1519,8 +1157,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="776520" y="21594240"/>
-          <a:ext cx="3822480" cy="3216600"/>
+          <a:off x="803520" y="21585240"/>
+          <a:ext cx="3822120" cy="3216240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1535,15 +1173,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>56160</xdr:colOff>
+      <xdr:colOff>83160</xdr:colOff>
       <xdr:row>102</xdr:row>
-      <xdr:rowOff>83880</xdr:rowOff>
+      <xdr:rowOff>74880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>18000</xdr:colOff>
+      <xdr:colOff>44640</xdr:colOff>
       <xdr:row>104</xdr:row>
-      <xdr:rowOff>191160</xdr:rowOff>
+      <xdr:rowOff>181800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1552,8 +1190,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1541880" y="23227560"/>
-          <a:ext cx="1447920" cy="583560"/>
+          <a:off x="1568880" y="23218560"/>
+          <a:ext cx="1447560" cy="583200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1586,15 +1224,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>157680</xdr:colOff>
+      <xdr:colOff>184680</xdr:colOff>
       <xdr:row>105</xdr:row>
-      <xdr:rowOff>16920</xdr:rowOff>
+      <xdr:rowOff>7920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>219960</xdr:colOff>
+      <xdr:colOff>246600</xdr:colOff>
       <xdr:row>107</xdr:row>
-      <xdr:rowOff>228240</xdr:rowOff>
+      <xdr:rowOff>218880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1603,8 +1241,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="405000" y="23874840"/>
-          <a:ext cx="2043720" cy="687600"/>
+          <a:off x="432000" y="23865840"/>
+          <a:ext cx="2043360" cy="687240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1711,15 +1349,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>51480</xdr:colOff>
+      <xdr:colOff>78480</xdr:colOff>
       <xdr:row>104</xdr:row>
-      <xdr:rowOff>227880</xdr:rowOff>
+      <xdr:rowOff>218880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>130320</xdr:colOff>
+      <xdr:colOff>156960</xdr:colOff>
       <xdr:row>107</xdr:row>
-      <xdr:rowOff>216720</xdr:rowOff>
+      <xdr:rowOff>207360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1728,8 +1366,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2527920" y="23847840"/>
-          <a:ext cx="2059920" cy="703080"/>
+          <a:off x="2554920" y="23838840"/>
+          <a:ext cx="2059560" cy="702720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1841,15 +1479,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>18720</xdr:colOff>
+      <xdr:colOff>45720</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>16200</xdr:rowOff>
+      <xdr:rowOff>7200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>25200</xdr:colOff>
+      <xdr:colOff>51840</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>227880</xdr:rowOff>
+      <xdr:rowOff>218520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1858,8 +1496,110 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="266040" y="2810520"/>
-          <a:ext cx="1492560" cy="211680"/>
+          <a:off x="293040" y="2801520"/>
+          <a:ext cx="1492200" cy="211320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="ff0000"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9360</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>209520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>206280</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="256680" y="4908960"/>
+          <a:ext cx="5172480" cy="949320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="ff0000"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>165240</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>198360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>148320</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>33840</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="412560" y="7517160"/>
+          <a:ext cx="5184000" cy="424080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1892,25 +1632,76 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>229680</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>218520</xdr:rowOff>
+      <xdr:colOff>232920</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>27000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>201960</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>215640</xdr:rowOff>
+      <xdr:colOff>200160</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>221760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="CustomShape 1"/>
+        <xdr:cNvPr id="9" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="229680" y="4917960"/>
-          <a:ext cx="5172840" cy="949680"/>
+          <a:off x="232920" y="5916960"/>
+          <a:ext cx="5167800" cy="194760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="ff0000"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>235080</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>75600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>61560</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>149760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="235080" y="12105000"/>
+          <a:ext cx="2550600" cy="424440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1943,168 +1734,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>34560</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>171360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>18000</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>7200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="529560" y="7490160"/>
-          <a:ext cx="5184360" cy="424440"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="25560">
-          <a:solidFill>
-            <a:srgbClr val="ff0000"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>205920</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>36000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>173520</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>231120</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="205920" y="5925960"/>
-          <a:ext cx="5168160" cy="195120"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="25560">
-          <a:solidFill>
-            <a:srgbClr val="ff0000"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>244080</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>84600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>70920</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>159120</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="244080" y="12114000"/>
-          <a:ext cx="2550960" cy="424800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="25560">
-          <a:solidFill>
-            <a:srgbClr val="ff0000"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>20160</xdr:colOff>
+      <xdr:colOff>47160</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>168840</xdr:rowOff>
+      <xdr:rowOff>159840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>146160</xdr:colOff>
+      <xdr:colOff>172800</xdr:colOff>
       <xdr:row>86</xdr:row>
-      <xdr:rowOff>171360</xdr:rowOff>
+      <xdr:rowOff>162000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2113,8 +1751,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="515160" y="16930080"/>
-          <a:ext cx="6564960" cy="703440"/>
+          <a:off x="542160" y="16921080"/>
+          <a:ext cx="6564600" cy="703080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2180,7 +1818,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2320,17 +1958,20 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="5"/>
+      <c r="L4" s="0" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="5"/>
       <c r="G5" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -2339,14 +1980,14 @@
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="5"/>
       <c r="G6" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -2355,28 +1996,28 @@
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -2393,12 +2034,12 @@
       <c r="O29" s="7"/>
       <c r="P29" s="8"/>
       <c r="Q29" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
@@ -2415,7 +2056,7 @@
       <c r="O30" s="11"/>
       <c r="P30" s="12"/>
       <c r="Q30" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2438,7 +2079,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
@@ -2455,12 +2096,12 @@
       <c r="O32" s="11"/>
       <c r="P32" s="12"/>
       <c r="Q32" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
@@ -2477,7 +2118,7 @@
       <c r="O33" s="11"/>
       <c r="P33" s="12"/>
       <c r="Q33" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2500,7 +2141,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
@@ -2517,12 +2158,12 @@
       <c r="O35" s="11"/>
       <c r="P35" s="12"/>
       <c r="Q35" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
@@ -2542,7 +2183,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
@@ -2580,7 +2221,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
@@ -2597,7 +2238,7 @@
       <c r="O39" s="11"/>
       <c r="P39" s="12"/>
       <c r="Q39" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2620,7 +2261,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
@@ -2637,13 +2278,13 @@
       <c r="O41" s="11"/>
       <c r="P41" s="12"/>
       <c r="Q41" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="10"/>
       <c r="C42" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
@@ -2658,15 +2299,15 @@
       <c r="N42" s="11"/>
       <c r="O42" s="11"/>
       <c r="P42" s="12"/>
-      <c r="Q42" s="15" t="s">
-        <v>48</v>
+      <c r="Q42" s="9" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="10"/>
-      <c r="C43" s="16"/>
+      <c r="C43" s="15"/>
       <c r="D43" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E43" s="14"/>
       <c r="F43" s="14"/>
@@ -2681,13 +2322,13 @@
       <c r="O43" s="11"/>
       <c r="P43" s="12"/>
       <c r="Q43" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="10"/>
       <c r="C44" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
@@ -2703,14 +2344,14 @@
       <c r="O44" s="11"/>
       <c r="P44" s="12"/>
       <c r="Q44" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="10"/>
       <c r="C45" s="14"/>
       <c r="D45" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E45" s="14"/>
       <c r="F45" s="14"/>
@@ -2725,84 +2366,84 @@
       <c r="O45" s="11"/>
       <c r="P45" s="12"/>
       <c r="Q45" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="17"/>
-      <c r="C46" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="19"/>
-      <c r="K46" s="19"/>
-      <c r="L46" s="19"/>
-      <c r="M46" s="19"/>
-      <c r="N46" s="19"/>
-      <c r="O46" s="19"/>
-      <c r="P46" s="20"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="18"/>
+      <c r="M46" s="18"/>
+      <c r="N46" s="18"/>
+      <c r="O46" s="18"/>
+      <c r="P46" s="19"/>
       <c r="Q46" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="2" t="s">
-        <v>59</v>
+      <c r="B50" s="20" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2821,7 +2462,7 @@
     </row>
     <row r="61" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C61" s="11"/>
       <c r="D61" s="11"/>
@@ -2829,7 +2470,7 @@
       <c r="F61" s="11"/>
       <c r="G61" s="11"/>
       <c r="H61" s="21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I61" s="21"/>
       <c r="J61" s="11"/>
@@ -2842,7 +2483,7 @@
     </row>
     <row r="62" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
@@ -2851,7 +2492,7 @@
       <c r="G62" s="11"/>
       <c r="H62" s="21"/>
       <c r="I62" s="21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J62" s="11"/>
       <c r="K62" s="11"/>
@@ -2863,7 +2504,7 @@
     </row>
     <row r="63" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
@@ -2872,7 +2513,7 @@
       <c r="G63" s="11"/>
       <c r="H63" s="21"/>
       <c r="I63" s="21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J63" s="11"/>
       <c r="K63" s="11"/>
@@ -2884,7 +2525,7 @@
     </row>
     <row r="64" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C64" s="11"/>
       <c r="D64" s="11"/>
@@ -2893,7 +2534,7 @@
       <c r="G64" s="11"/>
       <c r="H64" s="21"/>
       <c r="I64" s="21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J64" s="11"/>
       <c r="K64" s="11"/>
@@ -2905,7 +2546,7 @@
     </row>
     <row r="65" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C65" s="11"/>
       <c r="D65" s="11"/>
@@ -2913,7 +2554,7 @@
       <c r="F65" s="11"/>
       <c r="G65" s="11"/>
       <c r="H65" s="21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I65" s="11"/>
       <c r="J65" s="11"/>
@@ -2926,7 +2567,7 @@
     </row>
     <row r="66" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C66" s="11"/>
       <c r="D66" s="11"/>
@@ -2945,7 +2586,7 @@
     </row>
     <row r="67" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C67" s="11"/>
       <c r="D67" s="11"/>
@@ -2964,7 +2605,7 @@
     </row>
     <row r="68" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C68" s="11"/>
       <c r="D68" s="11"/>
@@ -2983,49 +2624,49 @@
     </row>
     <row r="69" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="22"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="19"/>
-      <c r="G69" s="19"/>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="19"/>
-      <c r="K69" s="19"/>
-      <c r="L69" s="19"/>
-      <c r="M69" s="19"/>
-      <c r="N69" s="19"/>
-      <c r="O69" s="19"/>
-      <c r="P69" s="20"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="18"/>
+      <c r="I69" s="18"/>
+      <c r="J69" s="18"/>
+      <c r="K69" s="18"/>
+      <c r="L69" s="18"/>
+      <c r="M69" s="18"/>
+      <c r="N69" s="18"/>
+      <c r="O69" s="18"/>
+      <c r="P69" s="19"/>
     </row>
     <row r="71" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C111" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C112" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3059,67 +2700,67 @@
   <sheetData>
     <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" s="23" t="s">
         <v>82</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" s="23" t="s">
         <v>84</v>
       </c>
+      <c r="E4" s="20" t="s">
+        <v>85</v>
+      </c>
       <c r="K4" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E5" s="23" t="s">
-        <v>86</v>
+      <c r="E5" s="20" t="s">
+        <v>87</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E6" s="23" t="s">
-        <v>88</v>
+      <c r="E6" s="20" t="s">
+        <v>89</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="2" t="s">
-        <v>90</v>
+      <c r="B7" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="2" t="s">
-        <v>92</v>
+      <c r="B10" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -3145,7 +2786,7 @@
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -3171,7 +2812,7 @@
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
@@ -3194,8 +2835,8 @@
       <c r="U13" s="11"/>
       <c r="V13" s="11"/>
       <c r="W13" s="12"/>
-      <c r="X13" s="24" t="s">
-        <v>94</v>
+      <c r="X13" s="23" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3224,7 +2865,7 @@
     </row>
     <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
@@ -3250,7 +2891,7 @@
     </row>
     <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
@@ -3300,7 +2941,7 @@
     </row>
     <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
@@ -3326,7 +2967,7 @@
     </row>
     <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -3352,7 +2993,7 @@
     </row>
     <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
@@ -3402,7 +3043,7 @@
     </row>
     <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -3428,7 +3069,7 @@
     </row>
     <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
@@ -3451,13 +3092,13 @@
       <c r="U23" s="11"/>
       <c r="V23" s="11"/>
       <c r="W23" s="12"/>
-      <c r="X23" s="24" t="s">
-        <v>97</v>
+      <c r="X23" s="23" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -3480,11 +3121,11 @@
       <c r="U24" s="11"/>
       <c r="V24" s="11"/>
       <c r="W24" s="12"/>
-      <c r="X24" s="24"/>
+      <c r="X24" s="23"/>
     </row>
     <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -3507,11 +3148,11 @@
       <c r="U25" s="11"/>
       <c r="V25" s="11"/>
       <c r="W25" s="12"/>
-      <c r="X25" s="24"/>
+      <c r="X25" s="23"/>
     </row>
     <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
@@ -3534,8 +3175,8 @@
       <c r="U26" s="11"/>
       <c r="V26" s="11"/>
       <c r="W26" s="12"/>
-      <c r="X26" s="24" t="s">
-        <v>101</v>
+      <c r="X26" s="23" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3561,11 +3202,11 @@
       <c r="U27" s="11"/>
       <c r="V27" s="11"/>
       <c r="W27" s="12"/>
-      <c r="X27" s="24"/>
+      <c r="X27" s="23"/>
     </row>
     <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
@@ -3588,7 +3229,7 @@
       <c r="U28" s="11"/>
       <c r="V28" s="11"/>
       <c r="W28" s="12"/>
-      <c r="X28" s="24"/>
+      <c r="X28" s="23"/>
     </row>
     <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="13"/>
@@ -3613,11 +3254,11 @@
       <c r="U29" s="11"/>
       <c r="V29" s="11"/>
       <c r="W29" s="12"/>
-      <c r="X29" s="24"/>
+      <c r="X29" s="23"/>
     </row>
     <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
@@ -3640,11 +3281,11 @@
       <c r="U30" s="11"/>
       <c r="V30" s="11"/>
       <c r="W30" s="12"/>
-      <c r="X30" s="24"/>
+      <c r="X30" s="23"/>
     </row>
     <row r="31" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
@@ -3667,12 +3308,12 @@
       <c r="U31" s="11"/>
       <c r="V31" s="11"/>
       <c r="W31" s="12"/>
-      <c r="X31" s="24"/>
+      <c r="X31" s="23"/>
     </row>
     <row r="32" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="13"/>
       <c r="C32" s="14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
@@ -3694,13 +3335,13 @@
       <c r="U32" s="11"/>
       <c r="V32" s="11"/>
       <c r="W32" s="12"/>
-      <c r="X32" s="24"/>
+      <c r="X32" s="23"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" s="16"/>
+        <v>105</v>
+      </c>
+      <c r="C33" s="15"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
@@ -3721,13 +3362,13 @@
       <c r="U33" s="11"/>
       <c r="V33" s="11"/>
       <c r="W33" s="12"/>
-      <c r="X33" s="24" t="s">
-        <v>105</v>
+      <c r="X33" s="23" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
@@ -3753,7 +3394,7 @@
     </row>
     <row r="35" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
@@ -3779,7 +3420,7 @@
     </row>
     <row r="36" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
@@ -3804,77 +3445,77 @@
       <c r="W36" s="12"/>
     </row>
     <row r="37" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="19"/>
-      <c r="N37" s="19"/>
-      <c r="O37" s="19"/>
-      <c r="P37" s="19"/>
-      <c r="Q37" s="19"/>
-      <c r="R37" s="19"/>
-      <c r="S37" s="19"/>
-      <c r="T37" s="19"/>
-      <c r="U37" s="19"/>
-      <c r="V37" s="19"/>
-      <c r="W37" s="20"/>
+      <c r="B37" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="18"/>
+      <c r="Q37" s="18"/>
+      <c r="R37" s="18"/>
+      <c r="S37" s="18"/>
+      <c r="T37" s="18"/>
+      <c r="U37" s="18"/>
+      <c r="V37" s="18"/>
+      <c r="W37" s="19"/>
     </row>
     <row r="39" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="2" t="s">
-        <v>112</v>
+      <c r="B41" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="2" t="s">
-        <v>59</v>
+      <c r="B42" s="20" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="2" t="s">
-        <v>113</v>
+      <c r="B43" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="26" t="s">
-        <v>116</v>
+      <c r="B47" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="2"/>
+      <c r="B48" s="1"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -3907,7 +3548,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11"/>
@@ -3940,7 +3581,7 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C51" s="11"/>
       <c r="D51" s="11"/>
@@ -4004,7 +3645,7 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
@@ -4037,7 +3678,7 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
@@ -4070,7 +3711,7 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
@@ -4103,7 +3744,7 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
@@ -4133,12 +3774,12 @@
       <c r="AB56" s="11"/>
       <c r="AC56" s="12"/>
       <c r="AD56" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
@@ -4168,7 +3809,7 @@
       <c r="AB57" s="11"/>
       <c r="AC57" s="12"/>
       <c r="AD57" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4204,7 +3845,7 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C59" s="11"/>
       <c r="D59" s="11"/>
@@ -4237,7 +3878,7 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
@@ -4270,7 +3911,7 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C61" s="11"/>
       <c r="D61" s="11"/>
@@ -4303,7 +3944,7 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
@@ -4336,7 +3977,7 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
@@ -4400,7 +4041,7 @@
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C65" s="11"/>
       <c r="D65" s="11"/>
@@ -4433,7 +4074,7 @@
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C66" s="11"/>
       <c r="D66" s="11"/>
@@ -4466,7 +4107,7 @@
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C67" s="11"/>
       <c r="D67" s="11"/>
@@ -4499,7 +4140,7 @@
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C68" s="11"/>
       <c r="D68" s="11"/>
@@ -4532,7 +4173,7 @@
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C69" s="11"/>
       <c r="D69" s="11"/>
@@ -4596,7 +4237,7 @@
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C71" s="11"/>
       <c r="D71" s="11"/>
@@ -4629,7 +4270,7 @@
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C72" s="11"/>
       <c r="D72" s="11"/>
@@ -4693,7 +4334,7 @@
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C74" s="11"/>
       <c r="D74" s="11"/>
@@ -4726,7 +4367,7 @@
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C75" s="11"/>
       <c r="D75" s="11"/>
@@ -4759,7 +4400,7 @@
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C76" s="11"/>
       <c r="D76" s="11"/>
@@ -4792,7 +4433,7 @@
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C77" s="11"/>
       <c r="D77" s="11"/>
@@ -4825,7 +4466,7 @@
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C78" s="11"/>
       <c r="D78" s="11"/>
@@ -4858,7 +4499,7 @@
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C79" s="11"/>
       <c r="D79" s="11"/>
@@ -4891,7 +4532,7 @@
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C80" s="11"/>
       <c r="D80" s="11"/>
@@ -4924,7 +4565,7 @@
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C81" s="11"/>
       <c r="D81" s="11"/>
@@ -4957,7 +4598,7 @@
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C82" s="11"/>
       <c r="D82" s="11"/>
@@ -4990,7 +4631,7 @@
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C83" s="11"/>
       <c r="D83" s="11"/>
@@ -5023,7 +4664,7 @@
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C84" s="11"/>
       <c r="D84" s="11"/>
@@ -5052,13 +4693,13 @@
       <c r="AA84" s="11"/>
       <c r="AB84" s="11"/>
       <c r="AC84" s="12"/>
-      <c r="AD84" s="15" t="s">
-        <v>133</v>
+      <c r="AD84" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C85" s="11"/>
       <c r="D85" s="11"/>
@@ -5091,7 +4732,7 @@
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C86" s="11"/>
       <c r="D86" s="11"/>
@@ -5124,7 +4765,7 @@
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C87" s="11"/>
       <c r="D87" s="11"/>
@@ -5156,51 +4797,51 @@
       <c r="AD87" s="9"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="C88" s="19"/>
-      <c r="D88" s="19"/>
-      <c r="E88" s="19"/>
-      <c r="F88" s="19"/>
-      <c r="G88" s="19"/>
-      <c r="H88" s="19"/>
-      <c r="I88" s="19"/>
-      <c r="J88" s="19"/>
-      <c r="K88" s="19"/>
-      <c r="L88" s="19"/>
-      <c r="M88" s="19"/>
-      <c r="N88" s="19"/>
-      <c r="O88" s="19"/>
-      <c r="P88" s="19"/>
-      <c r="Q88" s="19"/>
-      <c r="R88" s="19"/>
-      <c r="S88" s="19"/>
-      <c r="T88" s="19"/>
-      <c r="U88" s="19"/>
-      <c r="V88" s="19"/>
-      <c r="W88" s="19"/>
-      <c r="X88" s="19"/>
-      <c r="Y88" s="19"/>
-      <c r="Z88" s="19"/>
-      <c r="AA88" s="19"/>
-      <c r="AB88" s="19"/>
-      <c r="AC88" s="20"/>
+      <c r="B88" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="C88" s="18"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="18"/>
+      <c r="F88" s="18"/>
+      <c r="G88" s="18"/>
+      <c r="H88" s="18"/>
+      <c r="I88" s="18"/>
+      <c r="J88" s="18"/>
+      <c r="K88" s="18"/>
+      <c r="L88" s="18"/>
+      <c r="M88" s="18"/>
+      <c r="N88" s="18"/>
+      <c r="O88" s="18"/>
+      <c r="P88" s="18"/>
+      <c r="Q88" s="18"/>
+      <c r="R88" s="18"/>
+      <c r="S88" s="18"/>
+      <c r="T88" s="18"/>
+      <c r="U88" s="18"/>
+      <c r="V88" s="18"/>
+      <c r="W88" s="18"/>
+      <c r="X88" s="18"/>
+      <c r="Y88" s="18"/>
+      <c r="Z88" s="18"/>
+      <c r="AA88" s="18"/>
+      <c r="AB88" s="18"/>
+      <c r="AC88" s="19"/>
       <c r="AD88" s="9"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="2" t="s">
-        <v>59</v>
+      <c r="B92" s="20" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
